--- a/table_1_2026_01_04.xlsx
+++ b/table_1_2026_01_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmliu\OneDrive\文档\GitHub\Liu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B73746-5917-464B-ABF1-A6CC81327785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5641A2AD-E415-4411-9DF2-85A757B969C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18912" windowHeight="11952" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="280">
   <si>
     <t>Enrichment in genomic regions</t>
   </si>
@@ -414,9 +414,6 @@
     <t>Found in two TCGA WES data of Breast cancer</t>
   </si>
   <si>
-    <t>InsDel16</t>
-  </si>
-  <si>
     <t>C_ID16</t>
   </si>
   <si>
@@ -568,9 +565,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>InsDel_E</t>
@@ -1083,10 +1077,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>83-type spectra</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1104,6 +1094,18 @@
   </si>
   <si>
     <t>83-type spectra w/o noise signatures</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsDel16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H,S</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1268,9 +1270,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,24 +1292,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1343,10 +1330,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1612,2633 +1614,2693 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:O25"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="64.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.94921875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="34.44921875" style="6" customWidth="1"/>
-    <col min="11" max="15" width="17.8984375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="8" style="7" customWidth="1"/>
-    <col min="19" max="19" width="7.546875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="10.09765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="64.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.94921875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="34.44921875" style="5" customWidth="1"/>
+    <col min="11" max="15" width="17.8984375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8" style="6" customWidth="1"/>
+    <col min="19" max="19" width="7.546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.09765625" style="6" customWidth="1"/>
     <col min="21" max="21" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="8.5" style="8"/>
+    <col min="22" max="22" width="8.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="57" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="J1" s="9"/>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:23" ht="130.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="11" t="s">
+      <c r="K2" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="U2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="6"/>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="26">
         <v>0.999</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="26">
         <v>1</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>0.998</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>0.98</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="P3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="6"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="14" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>0.96099999999999997</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>0.98699999999999999</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="14" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="6"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="14" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>0.998</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
         <v>0.92300000000000004</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="14" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="6"/>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="28">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14">
+      <c r="K6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>0.98399999999999999</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="14" t="s">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="U6" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="6"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="14" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>0.996</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <v>0.997</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="14"/>
-      <c r="V7" s="12" t="s">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="V7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="6"/>
+      <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>0.90600000000000003</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="26">
         <v>0.997</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="4">
+      <c r="H8" s="4"/>
+      <c r="I8" s="26">
         <v>2</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="14">
-        <v>0.998</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="K8" s="12">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="6"/>
+      <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="14" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="14">
-        <v>0.998</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="14" t="s">
+      <c r="K9" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="U9" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="6"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="K10" s="14">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="12">
         <v>0.98299999999999998</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14">
-        <v>0.93</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="14" t="s">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>0.999</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="U10" t="s">
         <v>49</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="6"/>
+      <c r="W10" s="5"/>
     </row>
     <row r="11" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="28">
         <v>0.99299999999999999</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="2">
+      <c r="H11" s="2"/>
+      <c r="I11" s="29">
         <v>3</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K11" s="14">
+      <c r="J11" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="12">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <v>0.95299999999999996</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="P11" s="4" t="s">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="U11" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="6"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="14" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="12">
         <v>0.98899999999999999</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>0.99199999999999999</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="14" t="s">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="6"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>0.96699999999999997</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="26">
         <v>0.90600000000000003</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>0.82299999999999995</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="26">
         <v>0.92600000000000005</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="26">
+        <v>5</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R15" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>6</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
-      <c r="A14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="14">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V14" s="12"/>
-      <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
-      <c r="A16" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13">
-        <v>6</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
-      <c r="A18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="14">
-        <v>0.91</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="14" t="s">
+      <c r="T18" s="12" t="s">
         <v>25</v>
       </c>
       <c r="U18" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="12" t="s">
+      <c r="V18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="W18" s="6"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="4">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
         <v>8</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <v>0.95599999999999996</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12">
         <v>0.96</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="P19" s="13" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T19" s="14" t="s">
+      <c r="T19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="12" t="s">
+      <c r="V19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="W19" s="6"/>
+      <c r="W19" s="5"/>
     </row>
     <row r="20" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>0.92</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="4">
         <v>0.91300000000000003</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="K20" s="14">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K20" s="12">
         <v>0.95099999999999996</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14">
+      <c r="N20" s="12"/>
+      <c r="O20" s="12">
         <v>0.78600000000000003</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="19" t="s">
+      <c r="R20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="S20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="14" t="s">
+      <c r="T20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="6"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="12">
         <v>0.495</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
         <v>0.85899999999999999</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="12">
         <v>0.88600000000000001</v>
       </c>
-      <c r="O21" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" s="13" t="s">
+      <c r="O21" s="12">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="R21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="6"/>
+      <c r="T21" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="4">
         <v>0.96499999999999997</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12">
         <v>1</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="P22" s="13" t="s">
+      <c r="N22" s="12"/>
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="12"/>
-      <c r="W22" s="6"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="4">
         <v>0.94499999999999995</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
         <v>12</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="12">
         <v>0.95799999999999996</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12">
         <v>0.98199999999999998</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14">
+      <c r="N23" s="12"/>
+      <c r="O23" s="12">
         <v>0.97299999999999998</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="T23" s="12" t="s">
         <v>106</v>
       </c>
       <c r="U23" t="s">
         <v>57</v>
       </c>
-      <c r="V23" s="12"/>
-      <c r="W23" s="6"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>0.99</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="4">
         <v>0.98299999999999998</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
         <v>13</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="12">
         <v>0.98099999999999998</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14">
+      <c r="N24" s="12"/>
+      <c r="O24" s="12">
         <v>0.98599999999999999</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V24" s="12" t="s">
+      <c r="V24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="W24" s="6"/>
+      <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>0.98</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="4">
         <v>0.97399999999999998</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
         <v>14</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="12">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14">
+      <c r="L25" s="12"/>
+      <c r="M25" s="12">
         <v>0.97499999999999998</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="P25" s="13" t="s">
+      <c r="N25" s="12"/>
+      <c r="O25" s="12">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R25" s="19" t="s">
+      <c r="R25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="T25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="12"/>
-      <c r="W25" s="6"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="4">
         <v>0.99299999999999999</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="12">
         <v>0.998</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
         <v>0.98</v>
       </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="P26" s="13" t="s">
+      <c r="N26" s="12"/>
+      <c r="O26" s="12">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="S26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="T26" s="14" t="s">
+      <c r="T26" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="V26" s="12" t="s">
+      <c r="V26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="W26" s="6"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13" t="s">
+      <c r="G27" s="4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="13">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14" t="s">
+      <c r="K27" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="14">
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="12">
         <v>0.998</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A28" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12">
+        <v>0.999</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K28" s="14">
-        <v>0.998</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14">
-        <v>0.999</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14">
-        <v>1</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="T28" s="14" t="s">
+      <c r="T28" s="12" t="s">
         <v>106</v>
       </c>
       <c r="U28" t="s">
         <v>57</v>
       </c>
-      <c r="V28" s="12" t="s">
+      <c r="V28" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A29" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A29" s="13" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="14">
+      <c r="G29" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V30" s="11"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0.439</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V32" s="11"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O34" s="12">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V35" s="11"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V36" s="11"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="V37" s="11"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="12">
         <v>0.99</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K29" s="14">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="P29" s="13" t="s">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12">
+        <v>0.996</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="R29" s="13" t="s">
+      <c r="Q38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="V38" s="11"/>
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K39" s="12">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="11"/>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40" s="4">
+        <v>4</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="W40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V41" s="11"/>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0.746</v>
+      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="N42" s="12">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O42" s="12">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S30" s="4" t="s">
+      <c r="R42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T30" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V30" s="12"/>
-      <c r="W30" s="6"/>
-    </row>
-    <row r="31" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A31" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V31" s="12"/>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A32" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="14">
-        <v>0.439</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="N32" s="14">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="O32" s="14">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V32" s="12"/>
-      <c r="W32" s="6"/>
-    </row>
-    <row r="33" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A33" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K33" s="14">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" s="14"/>
-      <c r="V33" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="N34" s="14">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="O34" s="14">
-        <v>0.628</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A35" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="14">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="K35" s="14">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V35" s="12"/>
-      <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A36" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" s="14">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V36" s="12"/>
-      <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A37" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K37" s="14">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T37" s="14"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="6"/>
-    </row>
-    <row r="38" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A38" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="K38" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="R38" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T38" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="V38" s="12"/>
-      <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A39" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K39" s="14">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q39" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="R39" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="S39" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="V39" s="12"/>
-      <c r="W39" s="6"/>
-    </row>
-    <row r="40" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A40" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I40" s="13">
-        <v>4</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="K40" s="14">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q40" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="W40" s="6"/>
-    </row>
-    <row r="41" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A41" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="14">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41" s="14">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R41" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="V41" s="12"/>
-      <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A42" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K42" s="14">
-        <v>0.746</v>
-      </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="N42" s="14">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" s="14" t="s">
+      <c r="T42" s="12" t="s">
         <v>106</v>
       </c>
       <c r="U42" t="s">
         <v>57</v>
       </c>
-      <c r="V42" s="12"/>
-      <c r="W42" s="6"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="5"/>
     </row>
     <row r="43" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13" t="s">
+      <c r="I43" s="4">
+        <v>25</v>
+      </c>
+      <c r="J43" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13" t="s">
+      <c r="K43" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="V43" s="11"/>
+    </row>
+    <row r="44" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
+      <c r="A44" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I43" s="13">
-        <v>25</v>
-      </c>
-      <c r="J43" s="14" t="s">
+      <c r="B44" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K43" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14">
-        <v>0.995</v>
-      </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R43" s="19" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12">
+        <v>0.999</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T43" s="14"/>
-      <c r="V43" s="12"/>
-    </row>
-    <row r="44" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
-      <c r="A44" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="K44" s="14">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14">
-        <v>0.999</v>
-      </c>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q44" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R44" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="13" t="s">
+      <c r="S44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T44" s="14" t="s">
+      <c r="T44" s="12" t="s">
         <v>25</v>
       </c>
       <c r="U44" t="s">
         <v>49</v>
       </c>
-      <c r="V44" s="12" t="s">
+      <c r="V44" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="4" t="s">
+      <c r="I45" s="26">
+        <v>26</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
+      <c r="K45" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R45" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="I45" s="4">
-        <v>26</v>
-      </c>
-      <c r="J45" s="14" t="s">
+      <c r="S45" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="U45" t="s">
         <v>211</v>
       </c>
-      <c r="K45" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="P45" s="4" t="s">
+      <c r="V45" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A46" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K46" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="N46" s="12">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="O46" s="12">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U46" t="s">
+        <v>211</v>
+      </c>
+      <c r="V46" s="11"/>
+    </row>
+    <row r="47" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="N47" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0.122</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0.504</v>
+      </c>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="V48" s="11"/>
+    </row>
+    <row r="49" spans="1:22" ht="41.4" x14ac:dyDescent="0.5">
+      <c r="A49" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K49" s="12">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S45" s="4" t="s">
+      <c r="T49" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" t="s">
+        <v>230</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.9" x14ac:dyDescent="0.5">
+      <c r="A50" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K50" s="12">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T45" s="14"/>
-      <c r="U45" t="s">
-        <v>213</v>
-      </c>
-      <c r="V45" s="12" t="s">
+      <c r="R50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" t="s">
+        <v>236</v>
+      </c>
+      <c r="V50" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A46" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="K46" s="14">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="N46" s="14">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="O46" s="14">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U46" t="s">
-        <v>213</v>
-      </c>
-      <c r="V46" s="12"/>
-    </row>
-    <row r="47" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A47" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="K47" s="14">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14">
-        <v>0.67</v>
-      </c>
-      <c r="N47" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T47" s="14"/>
-      <c r="V47" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A48" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="K48" s="14">
-        <v>0.504</v>
-      </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14">
-        <v>0.998</v>
-      </c>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="S48" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="T48" s="14"/>
-      <c r="V48" s="12"/>
-    </row>
-    <row r="49" spans="1:22" ht="41.4" x14ac:dyDescent="0.5">
-      <c r="A49" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14" t="s">
+    <row r="51" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="C51" s="13"/>
+      <c r="F51" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="K49" s="14">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q49" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T49" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="U49" t="s">
-        <v>232</v>
-      </c>
-      <c r="V49" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="15.9" x14ac:dyDescent="0.5">
-      <c r="A50" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13" t="s">
+    </row>
+    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="K50" s="14">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="P50" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="U50" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="20"/>
+    </row>
+    <row r="54" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A54" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="V50" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="C51" s="15"/>
-      <c r="F51" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="23" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A55" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="25"/>
-    </row>
-    <row r="54" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A54" s="12" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A56" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-    </row>
-    <row r="55" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A55" s="12" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+    </row>
+    <row r="57" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A57" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-    </row>
-    <row r="56" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A56" s="26" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+    </row>
+    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-    </row>
-    <row r="57" spans="1:22" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A57" s="26" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+    </row>
+    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-    </row>
-    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-    </row>
-    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="12" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="S34:S35"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
@@ -4253,48 +4315,6 @@
     <mergeCell ref="P34:P35"/>
     <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K3:O50">
@@ -4323,223 +4343,223 @@
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
         <v>246</v>
       </c>
-      <c r="B2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A3" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A5" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A8" s="13"/>
+      <c r="A8" s="4"/>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A12" s="14" t="s">
-        <v>155</v>
+      <c r="A12" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A15" s="14"/>
+      <c r="A15" s="12"/>
       <c r="B15">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A22" s="12"/>
+      <c r="B22" t="s">
         <v>251</v>
       </c>
-      <c r="C21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A22" s="14"/>
-      <c r="B22" t="s">
-        <v>253</v>
-      </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A24" s="14" t="s">
-        <v>132</v>
+      <c r="A24" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A25" s="14" t="s">
-        <v>235</v>
+      <c r="A25" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A26" s="14"/>
+      <c r="A26" s="12"/>
       <c r="B26">
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A32" s="14" t="s">
-        <v>219</v>
+      <c r="A32" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33">
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34">
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4575,88 +4595,88 @@
     <row r="50" spans="1:1" ht="14.1" x14ac:dyDescent="0.5"/>
     <row r="51" spans="1:1" ht="14.1" x14ac:dyDescent="0.5"/>
     <row r="52" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A52" s="14"/>
+      <c r="A52" s="12"/>
     </row>
     <row r="53" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A53" s="13"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A54" s="13"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A55" s="13"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A56" s="13"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A57" s="13"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A58" s="13"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A59" s="13"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A60" s="13"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A61" s="13"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A62" s="13"/>
+      <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A63" s="13"/>
+      <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A64" s="13"/>
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A65" s="13"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A67" s="13"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A68" s="13"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A69" s="13"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A70" s="13"/>
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A71" s="13"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A72" s="13"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A73" s="13"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A74" s="13"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A75" s="13"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A76" s="13"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A77" s="13"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A78" s="13"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A79" s="13"/>
+      <c r="A79" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/table_1_2026_01_04.xlsx
+++ b/table_1_2026_01_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmliu\OneDrive\文档\GitHub\Liu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5641A2AD-E415-4411-9DF2-85A757B969C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1F159-89DE-4620-B639-BE15C8EB5E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18912" windowHeight="11952" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="281">
   <si>
     <t>Enrichment in genomic regions</t>
   </si>
@@ -1011,6 +1011,78 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>InsDel_P</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspond to a signature mixed of C_ID1 and C_ID2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lymphoid::SP59448</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lymphoid::CPCT02120032T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lung::SP58101</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver::SP112290</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pancreas::SP102617</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone.SoftTissue::CPCT02010408T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colon::DRUP01230004T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to update exemplar (we chose the exemplar with high cosine similarity in 83-/89-/476-type to the signature after removing other components if there is any)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>83-type spectra</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>476-type spectra</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>89-type spectra</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>89-type spectra w/o noise signatures</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>83-type spectra w/o noise signatures</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsDel16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H,S</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ID_J with extra poly T deletions (ID_J</t>
     </r>
@@ -1022,7 +1094,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>PolyT_Ins</t>
+      <t>PolyT_Del</t>
     </r>
     <r>
       <rPr>
@@ -1037,75 +1109,29 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>InsDel_P</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>correspond to a signature mixed of C_ID1 and C_ID2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lymphoid::SP59448</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lymphoid::CPCT02120032T</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lung::SP58101</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver::SP112290</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pancreas::SP102617</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone.SoftTissue::CPCT02010408T</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colon::DRUP01230004T</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>need to update exemplar (we chose the exemplar with high cosine similarity in 83-/89-/476-type to the signature after removing other components if there is any)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>83-type spectra</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>476-type spectra</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>89-type spectra</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>89-type spectra w/o noise signatures</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>83-type spectra w/o noise signatures</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsDel16</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>H,S</t>
+    <r>
+      <t>ID_M with extra poly T deletions (ID_M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PolyT_De</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>l)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1333,10 +1359,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,10 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1615,10 +1641,10 @@
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1646,25 +1672,25 @@
     <row r="1" spans="1:23" ht="57" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J1" s="8"/>
       <c r="K1" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:23" ht="130.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -1697,13 +1723,13 @@
       <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="K2" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1739,14 +1765,14 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="27">
         <v>0.999</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="26">
+      <c r="I3" s="27">
         <v>1</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -1763,16 +1789,16 @@
       <c r="O3" s="12">
         <v>0.96</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="T3" s="12" t="s">
@@ -1795,10 +1821,10 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
@@ -1813,10 +1839,10 @@
       <c r="O4" s="12">
         <v>0.97099999999999997</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
       <c r="T4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1837,10 +1863,10 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="12" t="s">
         <v>33</v>
       </c>
@@ -1855,10 +1881,10 @@
       <c r="O5" s="12">
         <v>0.92900000000000005</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="12" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +1895,7 @@
     </row>
     <row r="6" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A6" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="23" t="s">
@@ -1879,14 +1905,14 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="E6" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>234</v>
@@ -1899,10 +1925,10 @@
       <c r="O6" s="12">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
       <c r="T6" s="12" t="s">
         <v>35</v>
       </c>
@@ -1922,10 +1948,10 @@
       <c r="C7" s="4"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="12" t="s">
         <v>39</v>
       </c>
@@ -1940,12 +1966,12 @@
       <c r="O7" s="12">
         <v>0.995</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
       <c r="T7" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V7" s="11" t="s">
         <v>40</v>
@@ -1964,14 +1990,14 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="27">
         <v>0.997</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="26">
+      <c r="I8" s="27">
         <v>2</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -1988,16 +2014,16 @@
       <c r="O8" s="12">
         <v>0.96799999999999997</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="S8" s="27" t="s">
         <v>46</v>
       </c>
       <c r="T8" s="12" t="s">
@@ -2016,10 +2042,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="26"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="12" t="s">
         <v>48</v>
       </c>
@@ -2034,10 +2060,10 @@
       <c r="O9" s="12">
         <v>0.93200000000000005</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="12" t="s">
         <v>25</v>
       </c>
@@ -2057,12 +2083,12 @@
       <c r="C10" s="4"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="26"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K10" s="12">
         <v>0.98299999999999998</v>
@@ -2075,10 +2101,10 @@
       <c r="O10" s="12">
         <v>0.999</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="12" t="s">
         <v>25</v>
       </c>
@@ -2102,18 +2128,18 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="29">
         <v>0.99299999999999999</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="29">
+      <c r="I11" s="30">
         <v>3</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K11" s="12">
         <v>0.90600000000000003</v>
@@ -2126,16 +2152,16 @@
       <c r="O11" s="12">
         <v>0.89300000000000002</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="S11" s="27" t="s">
         <v>46</v>
       </c>
       <c r="T11" s="12" t="s">
@@ -2161,10 +2187,10 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="12" t="s">
         <v>61</v>
       </c>
@@ -2179,10 +2205,10 @@
       <c r="O12" s="12">
         <v>0.99</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="12" t="s">
         <v>25</v>
       </c>
@@ -2203,10 +2229,10 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="27">
         <v>0.90600000000000003</v>
       </c>
       <c r="H13" s="4"/>
@@ -2225,16 +2251,16 @@
       <c r="O13" s="12">
         <v>0.96</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="27" t="s">
         <v>45</v>
       </c>
       <c r="T13" s="12" t="s">
@@ -2253,8 +2279,8 @@
       <c r="E14" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="12" t="s">
@@ -2271,10 +2297,10 @@
       <c r="O14" s="12">
         <v>0.86399999999999999</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
       <c r="T14" s="12" t="s">
         <v>25</v>
       </c>
@@ -2293,14 +2319,14 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="27">
         <v>0.92600000000000005</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="26">
+      <c r="I15" s="27">
         <v>5</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -2317,16 +2343,16 @@
       <c r="O15" s="12">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="S15" s="27" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="12" t="s">
@@ -2347,12 +2373,12 @@
       <c r="E16" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K16" s="12">
         <v>0.64400000000000002</v>
@@ -2365,10 +2391,10 @@
       <c r="O16" s="12">
         <v>0.95199999999999996</v>
       </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
       <c r="T16" s="12" t="s">
         <v>25</v>
       </c>
@@ -2569,7 +2595,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K20" s="12">
         <v>0.95099999999999996</v>
@@ -2645,7 +2671,7 @@
         <v>45</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V21" s="11"/>
       <c r="W21" s="5"/>
@@ -2915,7 +2941,7 @@
     </row>
     <row r="27" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="12"/>
@@ -3080,16 +3106,16 @@
       <c r="E30" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="27">
         <v>0.93500000000000005</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K30" s="12">
         <v>0.57899999999999996</v>
@@ -3102,16 +3128,16 @@
       <c r="O30" s="12">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P30" s="26" t="s">
+      <c r="P30" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="27" t="s">
+      <c r="R30" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="S30" s="26" t="s">
+      <c r="S30" s="27" t="s">
         <v>46</v>
       </c>
       <c r="T30" s="12" t="s">
@@ -3128,8 +3154,8 @@
       <c r="C31" s="4"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="12" t="s">
@@ -3146,10 +3172,10 @@
       <c r="O31" s="12">
         <v>0.98199999999999998</v>
       </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="26"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="27"/>
       <c r="T31" s="12" t="s">
         <v>25</v>
       </c>
@@ -3164,8 +3190,8 @@
       <c r="C32" s="4"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="12" t="s">
@@ -3184,10 +3210,10 @@
       <c r="O32" s="12">
         <v>0.56799999999999995</v>
       </c>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="27"/>
       <c r="T32" s="12" t="s">
         <v>25</v>
       </c>
@@ -3237,7 +3263,7 @@
         <v>46</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V33" s="11" t="s">
         <v>145</v>
@@ -3253,11 +3279,11 @@
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="27" t="s">
         <v>148</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="27" t="s">
         <v>149</v>
       </c>
       <c r="I34" s="4"/>
@@ -3277,16 +3303,16 @@
       <c r="O34" s="12">
         <v>0.53800000000000003</v>
       </c>
-      <c r="P34" s="26" t="s">
+      <c r="P34" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="27" t="s">
+      <c r="R34" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="26" t="s">
+      <c r="S34" s="27" t="s">
         <v>46</v>
       </c>
       <c r="T34" s="12" t="s">
@@ -3311,9 +3337,9 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="26"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4"/>
       <c r="J35" s="12" t="s">
         <v>155</v>
@@ -3329,10 +3355,10 @@
       <c r="O35" s="12">
         <v>0.93799999999999994</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="27"/>
       <c r="T35" s="12" t="s">
         <v>25</v>
       </c>
@@ -3434,7 +3460,7 @@
         <v>45</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V37" s="11"/>
       <c r="W37" s="5"/>
@@ -3484,7 +3510,7 @@
         <v>46</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V38" s="11"/>
       <c r="W38" s="5"/>
@@ -3751,7 +3777,7 @@
         <v>46</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V43" s="11"/>
     </row>
@@ -3765,7 +3791,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>203</v>
@@ -3776,7 +3802,7 @@
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K44" s="12">
         <v>0.94099999999999995</v>
@@ -3821,14 +3847,14 @@
       <c r="C45" s="4"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
+      <c r="G45" s="27"/>
+      <c r="H45" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="27">
         <v>26</v>
       </c>
       <c r="J45" s="12" t="s">
@@ -3845,20 +3871,20 @@
       <c r="O45" s="12">
         <v>0.99399999999999999</v>
       </c>
-      <c r="P45" s="26" t="s">
+      <c r="P45" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q45" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="R45" s="26" t="s">
+      <c r="R45" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="S45" s="26" t="s">
+      <c r="S45" s="27" t="s">
         <v>45</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U45" t="s">
         <v>211</v>
@@ -3877,10 +3903,10 @@
       <c r="C46" s="4"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="12" t="s">
         <v>214</v>
       </c>
@@ -3897,10 +3923,10 @@
       <c r="O46" s="12">
         <v>0.85299999999999998</v>
       </c>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
       <c r="T46" s="12" t="s">
         <v>35</v>
       </c>
@@ -3960,13 +3986,13 @@
         <v>46</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V47" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:23" ht="15.9" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>221</v>
       </c>
@@ -3975,7 +4001,9 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="F48" s="4" t="s">
         <v>223</v>
       </c>
@@ -4011,7 +4039,7 @@
         <v>119</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V48" s="11"/>
     </row>
@@ -4259,48 +4287,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="S34:S35"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
@@ -4315,6 +4301,48 @@
     <mergeCell ref="P34:P35"/>
     <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K3:O50">

--- a/table_1_2026_01_04.xlsx
+++ b/table_1_2026_01_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmliu\OneDrive\文档\GitHub\Liu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1F159-89DE-4620-B639-BE15C8EB5E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66154841-5484-429D-A336-046573EC116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18912" windowHeight="11952" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="282">
   <si>
     <t>Enrichment in genomic regions</t>
   </si>
@@ -1132,6 +1132,10 @@
       </rPr>
       <t>l)</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1359,13 +1363,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,7 +1375,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,7 +1648,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -1686,11 +1690,11 @@
       <c r="O1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:23" ht="130.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -1723,13 +1727,13 @@
       <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1765,14 +1769,14 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <v>0.999</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>1</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -1789,16 +1793,16 @@
       <c r="O3" s="12">
         <v>0.96</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="T3" s="12" t="s">
@@ -1821,10 +1825,10 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
@@ -1839,10 +1843,10 @@
       <c r="O4" s="12">
         <v>0.97099999999999997</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
       <c r="T4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1863,10 +1867,10 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="27"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="12" t="s">
         <v>33</v>
       </c>
@@ -1881,10 +1885,10 @@
       <c r="O5" s="12">
         <v>0.92900000000000005</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="12" t="s">
         <v>25</v>
       </c>
@@ -1907,10 +1911,10 @@
       <c r="E6" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="12" t="s">
         <v>263</v>
       </c>
@@ -1925,10 +1929,10 @@
       <c r="O6" s="12">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="12" t="s">
         <v>35</v>
       </c>
@@ -1948,10 +1952,10 @@
       <c r="C7" s="4"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="12" t="s">
         <v>39</v>
       </c>
@@ -1966,10 +1970,10 @@
       <c r="O7" s="12">
         <v>0.995</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="12" t="s">
         <v>276</v>
       </c>
@@ -1990,14 +1994,14 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>0.997</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>2</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -2014,16 +2018,16 @@
       <c r="O8" s="12">
         <v>0.96799999999999997</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T8" s="12" t="s">
@@ -2042,10 +2046,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="12" t="s">
         <v>48</v>
       </c>
@@ -2060,10 +2064,10 @@
       <c r="O9" s="12">
         <v>0.93200000000000005</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
       <c r="T9" s="12" t="s">
         <v>25</v>
       </c>
@@ -2083,10 +2087,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="12" t="s">
         <v>264</v>
       </c>
@@ -2101,10 +2105,10 @@
       <c r="O10" s="12">
         <v>0.999</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="12" t="s">
         <v>25</v>
       </c>
@@ -2128,14 +2132,14 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>0.99299999999999999</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>3</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -2152,16 +2156,16 @@
       <c r="O11" s="12">
         <v>0.89300000000000002</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T11" s="12" t="s">
@@ -2187,10 +2191,10 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="12" t="s">
         <v>61</v>
       </c>
@@ -2205,10 +2209,10 @@
       <c r="O12" s="12">
         <v>0.99</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="12" t="s">
         <v>25</v>
       </c>
@@ -2229,10 +2233,10 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>0.90600000000000003</v>
       </c>
       <c r="H13" s="4"/>
@@ -2251,16 +2255,16 @@
       <c r="O13" s="12">
         <v>0.96</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="26" t="s">
         <v>45</v>
       </c>
       <c r="T13" s="12" t="s">
@@ -2279,8 +2283,8 @@
       <c r="E14" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="12" t="s">
@@ -2297,10 +2301,10 @@
       <c r="O14" s="12">
         <v>0.86399999999999999</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="12" t="s">
         <v>25</v>
       </c>
@@ -2319,14 +2323,14 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="26">
         <v>0.92600000000000005</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>5</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -2343,16 +2347,16 @@
       <c r="O15" s="12">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="26" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="12" t="s">
@@ -2373,10 +2377,10 @@
       <c r="E16" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="12" t="s">
         <v>266</v>
       </c>
@@ -2391,10 +2395,10 @@
       <c r="O16" s="12">
         <v>0.95199999999999996</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
       <c r="T16" s="12" t="s">
         <v>25</v>
       </c>
@@ -3106,10 +3110,10 @@
       <c r="E30" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <v>0.93500000000000005</v>
       </c>
       <c r="H30" s="4"/>
@@ -3128,16 +3132,16 @@
       <c r="O30" s="12">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="31" t="s">
+      <c r="R30" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="S30" s="27" t="s">
+      <c r="S30" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T30" s="12" t="s">
@@ -3154,8 +3158,8 @@
       <c r="C31" s="4"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="12" t="s">
@@ -3172,10 +3176,10 @@
       <c r="O31" s="12">
         <v>0.98199999999999998</v>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="27"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="26"/>
       <c r="T31" s="12" t="s">
         <v>25</v>
       </c>
@@ -3190,8 +3194,8 @@
       <c r="C32" s="4"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="12" t="s">
@@ -3210,10 +3214,10 @@
       <c r="O32" s="12">
         <v>0.56799999999999995</v>
       </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="27"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="26"/>
       <c r="T32" s="12" t="s">
         <v>25</v>
       </c>
@@ -3279,11 +3283,11 @@
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>148</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="26" t="s">
         <v>149</v>
       </c>
       <c r="I34" s="4"/>
@@ -3303,16 +3307,16 @@
       <c r="O34" s="12">
         <v>0.53800000000000003</v>
       </c>
-      <c r="P34" s="27" t="s">
+      <c r="P34" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="31" t="s">
+      <c r="Q34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="31" t="s">
+      <c r="R34" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="27" t="s">
+      <c r="S34" s="26" t="s">
         <v>46</v>
       </c>
       <c r="T34" s="12" t="s">
@@ -3337,9 +3341,9 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="27"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="27"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="4"/>
       <c r="J35" s="12" t="s">
         <v>155</v>
@@ -3355,10 +3359,10 @@
       <c r="O35" s="12">
         <v>0.93799999999999994</v>
       </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="27"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="26"/>
       <c r="T35" s="12" t="s">
         <v>25</v>
       </c>
@@ -3847,14 +3851,14 @@
       <c r="C45" s="4"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27" t="s">
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="26">
         <v>26</v>
       </c>
       <c r="J45" s="12" t="s">
@@ -3871,16 +3875,16 @@
       <c r="O45" s="12">
         <v>0.99399999999999999</v>
       </c>
-      <c r="P45" s="27" t="s">
+      <c r="P45" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q45" s="31" t="s">
+      <c r="Q45" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="R45" s="27" t="s">
+      <c r="R45" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="S45" s="27" t="s">
+      <c r="S45" s="26" t="s">
         <v>45</v>
       </c>
       <c r="T45" s="12" t="s">
@@ -3903,10 +3907,10 @@
       <c r="C46" s="4"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="12" t="s">
         <v>214</v>
       </c>
@@ -3923,10 +3927,10 @@
       <c r="O46" s="12">
         <v>0.85299999999999998</v>
       </c>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
       <c r="T46" s="12" t="s">
         <v>35</v>
       </c>
@@ -3970,8 +3974,8 @@
       <c r="N47" s="12">
         <v>0.98</v>
       </c>
-      <c r="O47" s="12">
-        <v>0.122</v>
+      <c r="O47" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>21</v>
@@ -3985,9 +3989,7 @@
       <c r="S47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T47" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="T47" s="12"/>
       <c r="V47" s="11" t="s">
         <v>86</v>
       </c>
@@ -4287,6 +4289,48 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="S34:S35"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
@@ -4301,48 +4345,6 @@
     <mergeCell ref="P34:P35"/>
     <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="R34:R35"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="K3:O50">
